--- a/xls/shopConfig.xlsx
+++ b/xls/shopConfig.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@抽卡" sheetId="1" r:id="rId1"/>
     <sheet name="@基本配置" sheetId="4" r:id="rId2"/>
     <sheet name="代对表=" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,38 @@
   </si>
   <si>
     <t>rebateTimes[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>980钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3280钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4480钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6480钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300钻石包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +168,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -242,12 +278,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,153 +572,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="9" width="26.375" customWidth="1"/>
+    <col min="1" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="26.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" s="1">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>680</v>
+      </c>
+      <c r="F4" s="1">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1">
+        <v>980</v>
+      </c>
+      <c r="F7" s="1">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>198</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1980</v>
+      </c>
+      <c r="F8" s="1">
+        <v>198</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>328</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3280</v>
+      </c>
+      <c r="F9" s="1">
+        <v>328</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>448</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4480</v>
+      </c>
+      <c r="F10" s="1">
+        <v>448</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="G3">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>260</v>
-      </c>
-      <c r="G4">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-      <c r="F6">
-        <v>60</v>
+      <c r="D11" s="1">
+        <v>648</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6480</v>
+      </c>
+      <c r="F11" s="1">
+        <v>648</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5832</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -749,7 +904,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>

--- a/xls/shopConfig.xlsx
+++ b/xls/shopConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@抽卡" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>300钻石包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,94 +202,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -328,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,268 +497,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="26.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="26.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="1">
+        <v>25</v>
       </c>
       <c r="D3" s="1">
+        <v>250</v>
+      </c>
+      <c r="E3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
-        <v>250</v>
-      </c>
-      <c r="F3" s="1">
-        <v>25</v>
+      <c r="G3" s="1">
+        <v>30</v>
       </c>
       <c r="H3" s="1">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
+      <c r="C4" s="1">
+        <v>68</v>
       </c>
       <c r="D4" s="1">
+        <v>680</v>
+      </c>
+      <c r="E4" s="1">
         <v>68</v>
       </c>
-      <c r="E4" s="1">
-        <v>680</v>
-      </c>
-      <c r="F4" s="1">
-        <v>68</v>
+      <c r="G4" s="1">
+        <v>90</v>
       </c>
       <c r="H4" s="1">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
       <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
-        <v>60</v>
-      </c>
       <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
       <c r="D6" s="1">
+        <v>300</v>
+      </c>
+      <c r="E6" s="1">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
-        <v>300</v>
-      </c>
       <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C7" s="1">
+        <v>98</v>
+      </c>
       <c r="D7" s="1">
+        <v>980</v>
+      </c>
+      <c r="E7" s="1">
         <v>98</v>
       </c>
-      <c r="E7" s="1">
-        <v>980</v>
-      </c>
       <c r="F7" s="1">
-        <v>98</v>
-      </c>
-      <c r="G7" s="1">
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C8" s="1">
+        <v>198</v>
+      </c>
       <c r="D8" s="1">
+        <v>1980</v>
+      </c>
+      <c r="E8" s="1">
         <v>198</v>
       </c>
-      <c r="E8" s="1">
-        <v>1980</v>
-      </c>
       <c r="F8" s="1">
-        <v>198</v>
-      </c>
-      <c r="G8" s="1">
         <v>1782</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C9" s="1">
+        <v>328</v>
+      </c>
       <c r="D9" s="1">
+        <v>3280</v>
+      </c>
+      <c r="E9" s="1">
         <v>328</v>
       </c>
-      <c r="E9" s="1">
-        <v>3280</v>
-      </c>
       <c r="F9" s="1">
-        <v>328</v>
-      </c>
-      <c r="G9" s="1">
         <v>2952</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C10" s="1">
+        <v>448</v>
+      </c>
       <c r="D10" s="1">
+        <v>4480</v>
+      </c>
+      <c r="E10" s="1">
         <v>448</v>
       </c>
-      <c r="E10" s="1">
-        <v>4480</v>
-      </c>
       <c r="F10" s="1">
-        <v>448</v>
-      </c>
-      <c r="G10" s="1">
         <v>4032</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C11" s="1">
+        <v>648</v>
+      </c>
       <c r="D11" s="1">
+        <v>6480</v>
+      </c>
+      <c r="E11" s="1">
         <v>648</v>
       </c>
-      <c r="E11" s="1">
-        <v>6480</v>
-      </c>
       <c r="F11" s="1">
-        <v>648</v>
-      </c>
-      <c r="G11" s="1">
         <v>5832</v>
       </c>
     </row>
